--- a/Elixir Crop & Soil Information/Bitki Değerleri.xlsx
+++ b/Elixir Crop & Soil Information/Bitki Değerleri.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Elixir Crop &amp; Soil Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C40C8D-4EF5-224B-B69C-06ADC4CD5DAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E302AAB2-A72E-4D4C-A62C-219D7478A108}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DED9A60D-0E99-AA4F-9D28-A2586C71CE91}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Bitki</t>
   </si>
@@ -87,9 +87,6 @@
     <t>60% - 70%</t>
   </si>
   <si>
-    <t>%45 - 50%</t>
-  </si>
-  <si>
     <t>Kavun</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>10°-25°</t>
   </si>
   <si>
-    <t>15°-°32</t>
-  </si>
-  <si>
     <t>13°-18°</t>
   </si>
   <si>
@@ -190,6 +184,15 @@
   </si>
   <si>
     <t>20°-26°</t>
+  </si>
+  <si>
+    <t>15°-32°</t>
+  </si>
+  <si>
+    <t>45% - 50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33D0EA1-FB4B-DF4B-A79F-2B0CE0D62073}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -667,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -687,13 +690,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
@@ -707,13 +710,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>5</v>
@@ -727,13 +730,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
@@ -747,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>11</v>
@@ -767,13 +770,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
@@ -787,13 +790,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
@@ -807,16 +810,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
@@ -827,33 +830,33 @@
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
@@ -864,42 +867,47 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
